--- a/python/mutual_mold/files/05. PT. ITSP.xlsx
+++ b/python/mutual_mold/files/05. PT. ITSP.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. RIZKA\1. ERP\DATA MOLDING\0_+-¿p¦MÑU+O«¦\MoldData_20231122\05. PT. ITSP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4500847D-4976-4F27-B782-99BD27995D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CEC3F5D5-D79F-4A9E-A50F-25FE28AE0B2C}"/>
+    <workbookView windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIST MOLD 1" sheetId="1" r:id="rId1"/>
@@ -20,23 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'LIST MOLD 1'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'LIST MOLD 2'!$A$1:$Q$81</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -154,30 +132,45 @@
     <t>4</t>
   </si>
   <si>
+    <t>H LOUVER A/B/C LH/RH (SIDE)</t>
+  </si>
+  <si>
     <t>TSPT12064 TSPT12065 TSPT12066 TSPT12067 TSPT12068 TSPT12069</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>V -LOUVER LINK SIDE RH/LH</t>
+  </si>
+  <si>
     <t>TSPT1208 TSPT1209</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t xml:space="preserve">ADD PLATE LWR LH/RH (SIDE) </t>
+  </si>
+  <si>
     <t>TSPT1290 TSPT1291</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>ADD PLATE SIDE LH/RH (SIDE)</t>
+  </si>
+  <si>
     <t>TSPT1270 TSPT1271</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>FIN RING SIDE LH/RH</t>
+  </si>
+  <si>
     <t>TSPT12072 SPT12073</t>
   </si>
   <si>
@@ -193,39 +186,60 @@
     <t>10</t>
   </si>
   <si>
+    <t>KNOB VENT SIDE FR LH/RH</t>
+  </si>
+  <si>
     <t>TSPT12060 TSPT12061</t>
   </si>
   <si>
+    <t xml:space="preserve">KNOB VENT SIDE  RR LH/RH </t>
+  </si>
+  <si>
     <t>TSPT12062 TSPT12063</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
+    <t>H LOUVER LINK SIDE LH/RH</t>
+  </si>
+  <si>
     <t>TSPT12076 TSPT12077</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>CASE VENT CTR LH/RH</t>
+  </si>
+  <si>
     <t>TSPT12014</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t xml:space="preserve">V LOUVER A/B/C/D/E/FLH/RH (CTR) </t>
+  </si>
+  <si>
     <t>TSPT12036 TSPT12037 TSPT12038 TSPT12039 TSPT12040 TSPT12041  TSPT12042 TSPT12043 TSPT12044 TSPT12045 TSPT12046 TSPT12047</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t xml:space="preserve">KNOB VENT CTR FR LH/RH </t>
+  </si>
+  <si>
     <t xml:space="preserve">TSPT12016 TSPT12017                 TSPT 12018 TSPT12019 </t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>H LOUVER LINK CTR LH/RH</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSPT12034 TSPT12035 </t>
   </si>
   <si>
@@ -235,24 +249,36 @@
     <t>16</t>
   </si>
   <si>
+    <t xml:space="preserve">V LOUVER LINK CTR LH/RH </t>
+  </si>
+  <si>
     <t xml:space="preserve">TSPT12048 TSPT12049 </t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>ADD PLATE UPPER LH/RH (CTR)</t>
+  </si>
+  <si>
     <t>TSPT12050 TSPT12051</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
+    <t>ADD PLATE SIDE LH/RH (CTR)</t>
+  </si>
+  <si>
     <t>TSPT12028 TSPT12029</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>H LOUVER A/B/C LH/RH (CTR)</t>
+  </si>
+  <si>
     <t>TSPT12022 TSPT12023 TSPT12024 TSPT12025 TSPT12026 TSPT12027</t>
   </si>
   <si>
@@ -268,18 +294,27 @@
     <t>21</t>
   </si>
   <si>
+    <t>FIN RING CTR LH/RH (MATERIAL)</t>
+  </si>
+  <si>
     <t>TSPT/12032 TSPT12033</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t xml:space="preserve">FIN RING CTR LH/RH (PAINTING SILVER) </t>
+  </si>
+  <si>
     <t>TSPT/12030 TSPT12031</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
+    <t xml:space="preserve">CASE VENT UNDER </t>
+  </si>
+  <si>
     <t>TSPT11858</t>
   </si>
   <si>
@@ -301,63 +336,6 @@
     <t xml:space="preserve">TSPT11860 </t>
   </si>
   <si>
-    <t>H LOUVER A/B/C LH/RH (SIDE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD PLATE LWR LH/RH (SIDE) </t>
-  </si>
-  <si>
-    <t>ADD PLATE SIDE LH/RH (SIDE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V LOUVER A/B/C/D/E/FLH/RH (CTR) </t>
-  </si>
-  <si>
-    <t>ADD PLATE SIDE LH/RH (CTR)</t>
-  </si>
-  <si>
-    <t>H LOUVER A/B/C LH/RH (CTR)</t>
-  </si>
-  <si>
-    <t>FIN RING CTR LH/RH (MATERIAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN RING CTR LH/RH (PAINTING SILVER) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASE VENT UNDER </t>
-  </si>
-  <si>
-    <t>V -LOUVER LINK SIDE RH/LH</t>
-  </si>
-  <si>
-    <t>FIN RING SIDE LH/RH</t>
-  </si>
-  <si>
-    <t>KNOB VENT SIDE FR LH/RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNOB VENT SIDE  RR LH/RH </t>
-  </si>
-  <si>
-    <t>H LOUVER LINK SIDE LH/RH</t>
-  </si>
-  <si>
-    <t>CASE VENT CTR LH/RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNOB VENT CTR FR LH/RH </t>
-  </si>
-  <si>
-    <t>H LOUVER LINK CTR LH/RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V LOUVER LINK CTR LH/RH </t>
-  </si>
-  <si>
-    <t>ADD PLATE UPPER LH/RH (CTR)</t>
-  </si>
-  <si>
     <t>MOLD ID</t>
   </si>
   <si>
@@ -373,15 +351,18 @@
     <t xml:space="preserve">TSPT12006 </t>
   </si>
   <si>
+    <t xml:space="preserve">TSPT1278 </t>
+  </si>
+  <si>
     <t>V LOUVER A/B/C/D/E RH/LH (SIDE)</t>
   </si>
   <si>
-    <t xml:space="preserve">TSPT1278 </t>
-  </si>
-  <si>
     <t>TSPT1279</t>
   </si>
   <si>
+    <t>TSPT1278</t>
+  </si>
+  <si>
     <t>TSPT1280</t>
   </si>
   <si>
@@ -406,9 +387,6 @@
     <t>TSPT1287</t>
   </si>
   <si>
-    <t>TSPT1278</t>
-  </si>
-  <si>
     <t>TSPT12064</t>
   </si>
   <si>
@@ -430,15 +408,15 @@
     <t>TSPT12069</t>
   </si>
   <si>
+    <t>TSPT12088</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSPT12088 </t>
   </si>
   <si>
     <t>TSPT12089</t>
   </si>
   <si>
-    <t>TSPT12088</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSPT1290 </t>
   </si>
   <si>
@@ -451,27 +429,30 @@
     <t>TSPT1271</t>
   </si>
   <si>
+    <t>TSPT12072</t>
+  </si>
+  <si>
     <t>FIN RING SIDE LH/RH (PAINTING SILVER)</t>
   </si>
   <si>
+    <t xml:space="preserve">TSPT12072 </t>
+  </si>
+  <si>
+    <t>TSPT12073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPT12074 </t>
+  </si>
+  <si>
     <t>FIN RING SIDE LH/RH (MATERIAL)</t>
   </si>
   <si>
-    <t xml:space="preserve">TSPT12072 </t>
-  </si>
-  <si>
-    <t>TSPT12073</t>
-  </si>
-  <si>
-    <t>TSPT12072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPT12074 </t>
-  </si>
-  <si>
     <t>TSPT12075</t>
   </si>
   <si>
+    <t>TSPT12060</t>
+  </si>
+  <si>
     <t>KNOB VENT SIDE FR/RR LH/RH</t>
   </si>
   <si>
@@ -487,7 +468,7 @@
     <t>TSPT12063</t>
   </si>
   <si>
-    <t>TSPT12060</t>
+    <t>TSPT12076</t>
   </si>
   <si>
     <t>H-LOUVER LINK SIDE LH/RH</t>
@@ -499,21 +480,18 @@
     <t>TSPT12077</t>
   </si>
   <si>
-    <t>TSPT12076</t>
+    <t>TSPT12036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V LOUVER A/B/C/D/E/F LH/RH (CTR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPT12036 </t>
   </si>
   <si>
     <t>FAMILIY MOLD (12 Cav)</t>
   </si>
   <si>
-    <t xml:space="preserve">TSPT12036 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">V LOUVER A/B/C/D/E/F LH/RH (CTR) </t>
-  </si>
-  <si>
-    <t>TSPT12036</t>
-  </si>
-  <si>
     <t>TSPT12037</t>
   </si>
   <si>
@@ -571,25 +549,25 @@
     <t xml:space="preserve">TSPT12049 </t>
   </si>
   <si>
+    <t>TSPT12050</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSPT12050 </t>
   </si>
   <si>
     <t>TSPT12051</t>
   </si>
   <si>
-    <t>TSPT12050</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSPT12028 </t>
   </si>
   <si>
     <t>TSPT12029</t>
   </si>
   <si>
+    <t>TSPT12022</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSPT12022 </t>
-  </si>
-  <si>
-    <t>TSPT12022</t>
   </si>
   <si>
     <t>TSPT12023</t>
@@ -622,60 +600,212 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
+      <b/>
+      <sz val="26"/>
+      <name val="Trebuchet MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="26"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,8 +824,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -705,11 +1021,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -718,7 +1034,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -726,54 +1042,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -783,7 +1062,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -791,12 +1070,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,157 +1084,170 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -963,25 +1255,291 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="double">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,323 +1552,319 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="1" xr:uid="{9F7D2061-B64E-4169-9CC7-EC0734FE4ADA}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Style 1" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1326,18 +1880,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB26F5D-63FF-4B19-9083-E9495107989C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1134"/>
+        <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+      <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="85725" y="114300"/>
           <a:ext cx="2066925" cy="733425"/>
@@ -1345,20 +1891,14 @@
           <a:chExt cx="2162825" cy="773091"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="WordArt 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D384B10F-C59D-B8E2-4555-0C6B610499D7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="WordArt 69"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="707652" y="281124"/>
             <a:ext cx="1455173" cy="210843"/>
@@ -1388,28 +1928,31 @@
                 <a:solidFill>
                   <a:srgbClr val="333399"/>
                 </a:solidFill>
-                <a:latin typeface="Arial Black"/>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204"/>
               </a:rPr>
               <a:t>PT. YUJU INDONESIA</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="3600" kern="10" spc="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 360">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69002360-1A29-5A81-66BE-6E6790F0C1C9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Picture 360"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:blip r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1421,7 +1964,7 @@
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
             <a:ext cx="727977" cy="773091"/>
@@ -1461,7 +2004,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1477,39 +2020,25 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB0773C-9F91-4338-8E4F-42E3024D29F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1134"/>
+        <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="200267" y="166673"/>
-          <a:ext cx="3009830" cy="895378"/>
+          <a:off x="200025" y="166370"/>
+          <a:ext cx="3009900" cy="895350"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="2497395" cy="773091"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="WordArt 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394E67A6-16B9-15D1-2B90-708DF53300F3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="WordArt 69"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1" noChangeShapeType="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="736635" y="248646"/>
             <a:ext cx="1760760" cy="308694"/>
@@ -1539,28 +2068,31 @@
                 <a:solidFill>
                   <a:srgbClr val="333399"/>
                 </a:solidFill>
-                <a:latin typeface="Arial Black"/>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204"/>
               </a:rPr>
               <a:t>PT. YUJU INDONESIA</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="3600" kern="10" spc="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 360">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7CB65F-79CF-8C53-8D67-BE16F407C146}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Picture 360"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:blip r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1572,7 +2104,7 @@
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
+        <xdr:spPr>
           <a:xfrm>
             <a:off x="0" y="0"/>
             <a:ext cx="727977" cy="773091"/>
@@ -1654,7 +2186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1687,26 +2219,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1739,23 +2254,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1897,24 +2395,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDC0ACA-B518-4DD8-AB9D-5B8BA66A7A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
@@ -3069,154 +3562,154 @@
     <col min="16147" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="5.25" customHeight="1"/>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
+    <row r="1" ht="5.25" customHeight="1"/>
+    <row r="2" ht="18.75" customHeight="1" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="84" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="6" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:17">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="6" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="64"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:17">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="6" t="s">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="64"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:17">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="64"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="52" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="71" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="73" t="s">
+      <c r="P6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
       <c r="L7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3226,34 +3719,34 @@
       <c r="N7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-    </row>
-    <row r="8" spans="1:17" ht="126" customHeight="1" thickTop="1">
-      <c r="A8" s="21" t="s">
+      <c r="O7" s="50"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+    </row>
+    <row r="8" ht="126" customHeight="1" spans="1:17">
+      <c r="A8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="77" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="51">
         <v>2</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="17">
         <v>1000</v>
       </c>
@@ -3266,31 +3759,31 @@
       <c r="O8" s="17">
         <v>2825.5</v>
       </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
-    </row>
-    <row r="9" spans="1:17" ht="103.5" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="64"/>
+    </row>
+    <row r="9" ht="103.5" customHeight="1" spans="1:17">
+      <c r="A9" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="24">
+      <c r="H9" s="70"/>
+      <c r="I9" s="51">
         <v>2</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="17">
         <v>720</v>
       </c>
@@ -3304,31 +3797,31 @@
         <f>630*590*720*7.8*0.75/1000000</f>
         <v>1565.6004</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
-    </row>
-    <row r="10" spans="1:17" ht="216.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="P9" s="54"/>
+      <c r="Q9" s="64"/>
+    </row>
+    <row r="10" ht="216.75" customHeight="1" spans="1:17">
+      <c r="A10" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="27" t="s">
+      <c r="H10" s="70"/>
+      <c r="I10" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="17">
         <v>750</v>
       </c>
@@ -3341,31 +3834,31 @@
       <c r="O10" s="17">
         <v>910.2</v>
       </c>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-    </row>
-    <row r="11" spans="1:17" ht="201.75" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="64"/>
+    </row>
+    <row r="11" ht="201.75" customHeight="1" spans="1:17">
+      <c r="A11" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="82" t="s">
+      <c r="B11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="17">
         <v>820</v>
       </c>
@@ -3377,33 +3870,33 @@
       </c>
       <c r="O11" s="17">
         <f>450*580*820*7.8*0.75/1000000</f>
-        <v>1252.0170000000001</v>
-      </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-    </row>
-    <row r="12" spans="1:17" ht="109.5" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="61" t="s">
+        <v>1252.017</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" ht="109.5" customHeight="1" spans="1:17">
+      <c r="A12" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="61"/>
+      <c r="B12" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="36"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="24">
+      <c r="H12" s="63"/>
+      <c r="I12" s="51">
         <v>2</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="17">
         <v>320</v>
       </c>
@@ -3417,31 +3910,31 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:17" ht="134.25" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="61"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" ht="134.25" customHeight="1" spans="1:17">
+      <c r="A13" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="36"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="24">
+      <c r="H13" s="72"/>
+      <c r="I13" s="51">
         <v>2</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="17">
         <v>500</v>
       </c>
@@ -3453,33 +3946,33 @@
       </c>
       <c r="O13" s="17">
         <f>310*500*410*7.8*0.75/1000000</f>
-        <v>371.76749999999998</v>
-      </c>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-    </row>
-    <row r="14" spans="1:17" ht="114.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="61"/>
+        <v>371.7675</v>
+      </c>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+    </row>
+    <row r="14" ht="114.75" customHeight="1" spans="1:17">
+      <c r="A14" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="36"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="24">
+      <c r="H14" s="72"/>
+      <c r="I14" s="51">
         <v>2</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="17">
         <v>290</v>
       </c>
@@ -3491,33 +3984,33 @@
       </c>
       <c r="O14" s="17">
         <f>280*410*290*7.8*0.75/1000000</f>
-        <v>194.75819999999999</v>
-      </c>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-    </row>
-    <row r="15" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="61"/>
+        <v>194.7582</v>
+      </c>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A15" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="36"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="24">
+      <c r="H15" s="72"/>
+      <c r="I15" s="51">
         <v>2</v>
       </c>
-      <c r="J15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="51"/>
+      <c r="J15" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="53"/>
       <c r="L15" s="17">
         <v>450</v>
       </c>
@@ -3533,28 +4026,28 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
     </row>
-    <row r="16" spans="1:17" ht="119.25" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="61"/>
+    <row r="16" ht="119.25" customHeight="1" spans="1:17">
+      <c r="A16" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="36"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="24">
+      <c r="H16" s="72"/>
+      <c r="I16" s="51">
         <v>2</v>
       </c>
-      <c r="J16" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="51"/>
+      <c r="J16" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="53"/>
       <c r="L16" s="17">
         <v>450</v>
       </c>
@@ -3567,90 +4060,90 @@
       <c r="O16" s="17">
         <v>414.4</v>
       </c>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-    </row>
-    <row r="17" spans="1:25" ht="98.1" customHeight="1">
-      <c r="A17" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="61"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A17" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="36"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="64">
+      <c r="G17" s="37"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="57">
         <v>4</v>
       </c>
-      <c r="J17" s="66" t="s">
+      <c r="J17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="67"/>
-      <c r="L17" s="49">
+      <c r="K17" s="59"/>
+      <c r="L17" s="19">
         <v>450</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="19">
         <v>410</v>
       </c>
-      <c r="N17" s="49">
+      <c r="N17" s="19">
         <v>350</v>
       </c>
-      <c r="O17" s="49">
+      <c r="O17" s="19">
         <v>453.3</v>
       </c>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-    </row>
-    <row r="18" spans="1:25" ht="98.1" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="48"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="32"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
-    </row>
-    <row r="19" spans="1:25" ht="124.5" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="48"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="64"/>
+    </row>
+    <row r="19" ht="124.5" customHeight="1" spans="1:17">
+      <c r="A19" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="32"/>
       <c r="F19" s="17"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="24">
+      <c r="H19" s="73"/>
+      <c r="I19" s="51">
         <v>2</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="51"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="17">
         <v>320</v>
       </c>
@@ -3664,31 +4157,31 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
-    </row>
-    <row r="20" spans="1:25" ht="153.75" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="48"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="64"/>
+    </row>
+    <row r="20" ht="153.75" customHeight="1" spans="1:17">
+      <c r="A20" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="32"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="24">
+      <c r="H20" s="73"/>
+      <c r="I20" s="51">
         <v>1</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="51"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="17">
         <v>900</v>
       </c>
@@ -3701,31 +4194,31 @@
       <c r="O20" s="17">
         <v>2395.5</v>
       </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:25" ht="268.5" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="48"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="64"/>
+    </row>
+    <row r="21" ht="268.5" customHeight="1" spans="1:17">
+      <c r="A21" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="32"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="74"/>
+      <c r="I21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="51"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="17">
         <v>840</v>
       </c>
@@ -3739,31 +4232,31 @@
         <f>370*580*840*7.8*0.75/1000000</f>
         <v>1054.5444</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:25" ht="153" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="48"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="64"/>
+    </row>
+    <row r="22" ht="153" customHeight="1" spans="1:17">
+      <c r="A22" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="32"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="24">
+      <c r="H22" s="75"/>
+      <c r="I22" s="51">
         <v>4</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="51"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="17">
         <v>450</v>
       </c>
@@ -3776,31 +4269,31 @@
       <c r="O22" s="17">
         <v>453.3</v>
       </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:25" ht="126.75" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="48"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="64"/>
+    </row>
+    <row r="23" ht="126.75" customHeight="1" spans="1:25">
+      <c r="A23" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="32"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="24">
+      <c r="H23" s="74"/>
+      <c r="I23" s="51">
         <v>2</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="17">
         <v>320</v>
       </c>
@@ -3814,34 +4307,34 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="9"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="64"/>
       <c r="Y23" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="129" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="48"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" ht="129" customHeight="1" spans="1:17">
+      <c r="A24" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="32"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="24">
+      <c r="H24" s="76"/>
+      <c r="I24" s="51">
         <v>2</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="51"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="17">
         <v>320</v>
       </c>
@@ -3855,31 +4348,31 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
-    </row>
-    <row r="25" spans="1:25" ht="136.5" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="48"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="64"/>
+    </row>
+    <row r="25" ht="136.5" customHeight="1" spans="1:17">
+      <c r="A25" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="32"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="27">
+      <c r="H25" s="77"/>
+      <c r="I25" s="55">
         <v>2</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="17">
         <v>400</v>
       </c>
@@ -3891,33 +4384,33 @@
       </c>
       <c r="O25" s="17">
         <f>280*400*410*7.8*0.75/1000000</f>
-        <v>268.63200000000001</v>
-      </c>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
-    </row>
-    <row r="26" spans="1:25" ht="142.5" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="48"/>
+        <v>268.632</v>
+      </c>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="64"/>
+    </row>
+    <row r="26" ht="142.5" customHeight="1" spans="1:17">
+      <c r="A26" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="32"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="24">
+      <c r="H26" s="78"/>
+      <c r="I26" s="51">
         <v>2</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="51"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="17">
         <v>300</v>
       </c>
@@ -3930,31 +4423,31 @@
       <c r="O26" s="17">
         <v>233.4</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
-    </row>
-    <row r="27" spans="1:25" ht="170.25" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="48"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="64"/>
+    </row>
+    <row r="27" ht="170.25" customHeight="1" spans="1:17">
+      <c r="A27" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="32"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="79"/>
+      <c r="I27" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="51"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="17">
         <v>820</v>
       </c>
@@ -3966,33 +4459,33 @@
       </c>
       <c r="O27" s="17">
         <f>450*580*820*7.8*0.75/1000000</f>
-        <v>1252.0170000000001</v>
-      </c>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
-    </row>
-    <row r="28" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="53"/>
+        <v>1252.017</v>
+      </c>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="64"/>
+    </row>
+    <row r="28" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A28" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="24">
+      <c r="H28" s="60"/>
+      <c r="I28" s="51">
         <v>2</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="51"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="17">
         <v>450</v>
       </c>
@@ -4005,31 +4498,31 @@
       <c r="O28" s="17">
         <v>400</v>
       </c>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
-    </row>
-    <row r="29" spans="1:25" ht="98.1" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="47" t="s">
+      <c r="P28" s="54"/>
+      <c r="Q28" s="64"/>
+    </row>
+    <row r="29" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A29" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="32"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31">
+      <c r="H29" s="57"/>
+      <c r="I29" s="57">
         <v>2</v>
       </c>
-      <c r="J29" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K29" s="51"/>
+      <c r="J29" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="53"/>
       <c r="L29" s="17">
         <v>450</v>
       </c>
@@ -4042,31 +4535,31 @@
       <c r="O29" s="17">
         <v>414.4</v>
       </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-    </row>
-    <row r="30" spans="1:25" ht="98.1" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="47" t="s">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A30" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="48"/>
+      <c r="B30" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="32"/>
       <c r="F30" s="2"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31">
+      <c r="H30" s="57"/>
+      <c r="I30" s="57">
         <v>2</v>
       </c>
-      <c r="J30" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30" s="51"/>
+      <c r="J30" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" s="53"/>
       <c r="L30" s="17">
         <v>450</v>
       </c>
@@ -4082,28 +4575,28 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="18"/>
     </row>
-    <row r="31" spans="1:25" ht="108" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="53"/>
+    <row r="31" ht="108" customHeight="1" spans="1:17">
+      <c r="A31" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="2"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="17">
         <v>2</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="51"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="17">
         <v>550</v>
       </c>
@@ -4115,33 +4608,33 @@
       </c>
       <c r="O31" s="17">
         <f>410*450*550*7.8*0.75/1000000</f>
-        <v>593.62874999999997</v>
-      </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-    </row>
-    <row r="32" spans="1:25" ht="103.5" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="25"/>
+        <v>593.62875</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" ht="103.5" customHeight="1" spans="1:17">
+      <c r="A32" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="43"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="17">
         <v>1</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="51"/>
+      <c r="K32" s="53"/>
       <c r="L32" s="19">
         <v>560</v>
       </c>
@@ -4153,33 +4646,33 @@
       </c>
       <c r="O32" s="19">
         <f>560*410*450*7.8*0.75/1000000</f>
-        <v>604.42200000000003</v>
-      </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-    </row>
-    <row r="33" spans="1:17" ht="113.25" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="25"/>
+        <v>604.422</v>
+      </c>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" ht="113.25" customHeight="1" spans="1:17">
+      <c r="A33" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="44"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="17">
         <v>4</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="51"/>
+      <c r="K33" s="53"/>
       <c r="L33" s="17">
         <v>370</v>
       </c>
@@ -4190,53 +4683,34 @@
         <v>250</v>
       </c>
       <c r="O33" s="17">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-    </row>
-    <row r="34" spans="1:17" ht="98.1" customHeight="1"/>
-    <row r="35" spans="1:17">
-      <c r="K35" s="45"/>
+        <v>162.3</v>
+      </c>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" ht="98.1" customHeight="1"/>
+    <row r="35" spans="11:11">
+      <c r="K35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="E2:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:H11"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="J12:K12"/>
@@ -4245,16 +4719,23 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="J19:K19"/>
@@ -4262,26 +4743,18 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:K24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
@@ -4291,13 +4764,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J30:K30"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="J27:K27"/>
@@ -4306,10 +4772,13 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="J31:K31"/>
@@ -4318,9 +4787,33 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="E2:K5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="J17:K18"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.23" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="80" fitToHeight="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="80" fitToHeight="8" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -4330,19 +4823,20 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547EC47A-763F-4115-A2C2-731168C5825B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H81"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
@@ -5497,155 +5991,155 @@
     <col min="16147" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24.75" customHeight="1">
+    <row r="1" ht="24.75" customHeight="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="6" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="6" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="64"/>
+    </row>
+    <row r="2" ht="24.75" customHeight="1" spans="1:17">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="6" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:17">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="6" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="64"/>
+    </row>
+    <row r="4" ht="24.75" customHeight="1" spans="1:17">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="64"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="49" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="71" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="73" t="s">
+      <c r="P5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="74"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="Q5" s="46"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="20" t="s">
         <v>20</v>
       </c>
@@ -5655,36 +6149,36 @@
       <c r="N6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
-    </row>
-    <row r="7" spans="1:17" ht="82.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="99" t="s">
+      <c r="O6" s="50"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" ht="82.5" customHeight="1" spans="1:17">
+      <c r="A7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="51">
         <v>2</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="17">
         <v>1000</v>
       </c>
@@ -5697,56 +6191,56 @@
       <c r="O7" s="17">
         <v>2825.5</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="57"/>
-    </row>
-    <row r="8" spans="1:17" ht="82.5" customHeight="1" thickTop="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="22" t="s">
+      <c r="P7" s="54"/>
+      <c r="Q7" s="64"/>
+    </row>
+    <row r="8" ht="82.5" customHeight="1" spans="1:17">
+      <c r="A8" s="29"/>
+      <c r="B8" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="77" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="17"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
-    </row>
-    <row r="9" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="64"/>
+    </row>
+    <row r="9" ht="82.5" customHeight="1" spans="1:17">
+      <c r="A9" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="24">
+      <c r="H9" s="30"/>
+      <c r="I9" s="51">
         <v>2</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="53"/>
       <c r="L9" s="17">
         <v>720</v>
       </c>
@@ -5760,56 +6254,56 @@
         <f>630*590*720*7.8*0.75/1000000</f>
         <v>1565.6004</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
-    </row>
-    <row r="10" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="26" t="s">
+      <c r="P9" s="54"/>
+      <c r="Q9" s="64"/>
+    </row>
+    <row r="10" ht="82.5" customHeight="1" spans="1:17">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-    </row>
-    <row r="11" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A11" s="62" t="s">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="64"/>
+    </row>
+    <row r="11" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A11" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="17">
         <v>750</v>
       </c>
@@ -5822,240 +6316,240 @@
       <c r="O11" s="17">
         <v>910.2</v>
       </c>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
-    </row>
-    <row r="12" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="82" t="s">
+      <c r="P11" s="54"/>
+      <c r="Q11" s="64"/>
+    </row>
+    <row r="12" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A12" s="35"/>
+      <c r="B12" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="83"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-    </row>
-    <row r="13" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="82" t="s">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="64"/>
+    </row>
+    <row r="13" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A13" s="35"/>
+      <c r="B13" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="83"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="34"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-    </row>
-    <row r="14" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="83"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="64"/>
+    </row>
+    <row r="14" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A14" s="35"/>
+      <c r="B14" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="34"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-    </row>
-    <row r="15" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="83"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="64"/>
+    </row>
+    <row r="15" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A15" s="35"/>
+      <c r="B15" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
-    </row>
-    <row r="16" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="83"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="64"/>
+    </row>
+    <row r="16" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A16" s="35"/>
+      <c r="B16" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="34"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
-    </row>
-    <row r="17" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="83"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="64"/>
+    </row>
+    <row r="17" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A17" s="35"/>
+      <c r="B17" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="34"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
-    </row>
-    <row r="18" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="83"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="64"/>
+    </row>
+    <row r="18" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A18" s="35"/>
+      <c r="B18" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="34"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="51"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
-    </row>
-    <row r="19" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="83"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="64"/>
+    </row>
+    <row r="19" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A19" s="35"/>
+      <c r="B19" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="34"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="51"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
-    </row>
-    <row r="20" spans="1:17" ht="107.25" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="26" t="s">
+      <c r="P19" s="54"/>
+      <c r="Q19" s="64"/>
+    </row>
+    <row r="20" ht="107.25" customHeight="1" spans="1:17">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="83"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="51"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="57"/>
-    </row>
-    <row r="21" spans="1:17" ht="93" customHeight="1">
-      <c r="A21" s="62" t="s">
+      <c r="P20" s="54"/>
+      <c r="Q20" s="64"/>
+    </row>
+    <row r="21" ht="93" customHeight="1" spans="1:17">
+      <c r="A21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="83"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="27" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="51"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="17">
         <v>820</v>
       </c>
@@ -6067,150 +6561,150 @@
       </c>
       <c r="O21" s="17">
         <f>450*580*820*7.8*0.75/1000000</f>
-        <v>1252.0170000000001</v>
-      </c>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-    </row>
-    <row r="22" spans="1:17" ht="93" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="26" t="s">
+        <v>1252.017</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" ht="93" customHeight="1" spans="1:17">
+      <c r="A22" s="35"/>
+      <c r="B22" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="82" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-    </row>
-    <row r="23" spans="1:17" ht="93" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="26" t="s">
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" ht="93" customHeight="1" spans="1:17">
+      <c r="A23" s="35"/>
+      <c r="B23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="82" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="83"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-    </row>
-    <row r="24" spans="1:17" ht="93" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="26" t="s">
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" ht="93" customHeight="1" spans="1:17">
+      <c r="A24" s="35"/>
+      <c r="B24" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="82" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="51"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-    </row>
-    <row r="25" spans="1:17" ht="93" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="26" t="s">
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" ht="93" customHeight="1" spans="1:17">
+      <c r="A25" s="35"/>
+      <c r="B25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="82" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-    </row>
-    <row r="26" spans="1:17" ht="93" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="26" t="s">
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" ht="93" customHeight="1" spans="1:17">
+      <c r="A26" s="29"/>
+      <c r="B26" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="82" t="s">
+      <c r="C26" s="31"/>
+      <c r="D26" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="83"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="51"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-    </row>
-    <row r="27" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="61" t="s">
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A27" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="C27" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="36"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="24">
+      <c r="H27" s="30"/>
+      <c r="I27" s="51">
         <v>2</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="51"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="17">
         <v>320</v>
       </c>
@@ -6224,56 +6718,56 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-    </row>
-    <row r="28" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="26" t="s">
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A28" s="29"/>
+      <c r="B28" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="61"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="51"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:17" ht="120" customHeight="1">
-      <c r="A29" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" ht="120" customHeight="1" spans="1:17">
+      <c r="A29" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="61"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="24">
+      <c r="H29" s="30"/>
+      <c r="I29" s="51">
         <v>2</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="51"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="17">
         <v>500</v>
       </c>
@@ -6285,58 +6779,58 @@
       </c>
       <c r="O29" s="17">
         <f>310*500*410*7.8*0.75/1000000</f>
-        <v>371.76749999999998</v>
-      </c>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="97"/>
-    </row>
-    <row r="30" spans="1:17" ht="120" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="26" t="s">
+        <v>371.7675</v>
+      </c>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+    </row>
+    <row r="30" ht="120" customHeight="1" spans="1:17">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="61" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="61"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="51"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-    </row>
-    <row r="31" spans="1:17" ht="114.75" customHeight="1">
-      <c r="A31" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+    </row>
+    <row r="31" ht="114.75" customHeight="1" spans="1:17">
+      <c r="A31" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="61"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="24">
+      <c r="H31" s="30"/>
+      <c r="I31" s="51">
         <v>2</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="51"/>
+      <c r="K31" s="53"/>
       <c r="L31" s="17">
         <v>290</v>
       </c>
@@ -6348,58 +6842,58 @@
       </c>
       <c r="O31" s="17">
         <f>280*410*290*7.8*0.75/1000000</f>
-        <v>194.75819999999999</v>
-      </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-    </row>
-    <row r="32" spans="1:17" ht="114.75" customHeight="1">
-      <c r="A32" s="63"/>
-      <c r="B32" s="26" t="s">
+        <v>194.7582</v>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" ht="114.75" customHeight="1" spans="1:17">
+      <c r="A32" s="29"/>
+      <c r="B32" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="61" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="61"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-    </row>
-    <row r="33" spans="1:17" ht="87.75" customHeight="1">
-      <c r="A33" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" ht="87.75" customHeight="1" spans="1:17">
+      <c r="A33" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="C33" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="61"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="24">
+      <c r="H33" s="30"/>
+      <c r="I33" s="51">
         <v>2</v>
       </c>
-      <c r="J33" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="51"/>
+      <c r="J33" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="53"/>
       <c r="L33" s="17">
         <v>450</v>
       </c>
@@ -6412,56 +6906,56 @@
       <c r="O33" s="17">
         <v>414.4</v>
       </c>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="57"/>
-    </row>
-    <row r="34" spans="1:17" ht="87.75" customHeight="1">
-      <c r="A34" s="63"/>
-      <c r="B34" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="61" t="s">
+      <c r="P33" s="54"/>
+      <c r="Q33" s="64"/>
+    </row>
+    <row r="34" ht="87.75" customHeight="1" spans="1:17">
+      <c r="A34" s="29"/>
+      <c r="B34" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="61"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="57"/>
-    </row>
-    <row r="35" spans="1:17" ht="109.5" customHeight="1">
-      <c r="A35" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="26" t="s">
+      <c r="P34" s="54"/>
+      <c r="Q34" s="64"/>
+    </row>
+    <row r="35" ht="109.5" customHeight="1" spans="1:17">
+      <c r="A35" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="61"/>
+      <c r="D35" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="36"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="24">
+      <c r="H35" s="30"/>
+      <c r="I35" s="51">
         <v>2</v>
       </c>
-      <c r="J35" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="51"/>
+      <c r="J35" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="53"/>
       <c r="L35" s="17">
         <v>450</v>
       </c>
@@ -6474,56 +6968,56 @@
       <c r="O35" s="17">
         <v>414.4</v>
       </c>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-    </row>
-    <row r="36" spans="1:17" ht="109.5" customHeight="1">
-      <c r="A36" s="63"/>
-      <c r="B36" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="61" t="s">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" ht="109.5" customHeight="1" spans="1:17">
+      <c r="A36" s="29"/>
+      <c r="B36" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="61"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53"/>
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-    </row>
-    <row r="37" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A37" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A37" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="C37" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="61"/>
+      <c r="D37" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="36"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="31">
+      <c r="G37" s="37"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="57">
         <v>4</v>
       </c>
-      <c r="J37" s="66" t="s">
+      <c r="J37" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="67"/>
+      <c r="K37" s="59"/>
       <c r="L37" s="19">
         <v>450</v>
       </c>
@@ -6536,101 +7030,101 @@
       <c r="O37" s="19">
         <v>453.3</v>
       </c>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-    </row>
-    <row r="38" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A38" s="98"/>
-      <c r="B38" s="26" t="s">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A38" s="35"/>
+      <c r="B38" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="64"/>
+    </row>
+    <row r="39" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A39" s="35"/>
+      <c r="B39" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="64"/>
+    </row>
+    <row r="40" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A40" s="29"/>
+      <c r="B40" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="57"/>
-    </row>
-    <row r="39" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="57"/>
-    </row>
-    <row r="40" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="57"/>
-    </row>
-    <row r="41" spans="1:17" ht="101.25" customHeight="1">
-      <c r="A41" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="26" t="s">
+      <c r="G40" s="38"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="64"/>
+    </row>
+    <row r="41" ht="101.25" customHeight="1" spans="1:17">
+      <c r="A41" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="C41" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="D41" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="32"/>
       <c r="F41" s="17"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="24">
+      <c r="H41" s="30"/>
+      <c r="I41" s="51">
         <v>2</v>
       </c>
-      <c r="J41" s="50" t="s">
+      <c r="J41" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="51"/>
+      <c r="K41" s="53"/>
       <c r="L41" s="17">
         <v>320</v>
       </c>
@@ -6644,55 +7138,55 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="57"/>
-    </row>
-    <row r="42" spans="1:17" ht="101.25" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="26" t="s">
+      <c r="P41" s="54"/>
+      <c r="Q41" s="64"/>
+    </row>
+    <row r="42" ht="101.25" customHeight="1" spans="1:17">
+      <c r="A42" s="29"/>
+      <c r="B42" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="17"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="53"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="57"/>
-    </row>
-    <row r="43" spans="1:17" ht="106.5" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="48"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="64"/>
+    </row>
+    <row r="43" ht="106.5" customHeight="1" spans="1:17">
+      <c r="A43" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="32"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="24">
+      <c r="H43" s="30"/>
+      <c r="I43" s="51">
         <v>1</v>
       </c>
-      <c r="J43" s="50" t="s">
+      <c r="J43" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="53"/>
       <c r="L43" s="17">
         <v>900</v>
       </c>
@@ -6705,33 +7199,33 @@
       <c r="O43" s="17">
         <v>2395.5</v>
       </c>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A44" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="26" t="s">
+      <c r="P43" s="54"/>
+      <c r="Q43" s="64"/>
+    </row>
+    <row r="44" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A44" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="50" t="s">
+      <c r="H44" s="30"/>
+      <c r="I44" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="J44" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="51"/>
+      <c r="K44" s="53"/>
       <c r="L44" s="17">
         <v>840</v>
       </c>
@@ -6745,286 +7239,286 @@
         <f>370*580*840*7.8*0.75/1000000</f>
         <v>1054.5444</v>
       </c>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A45" s="98"/>
-      <c r="B45" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="47" t="s">
+      <c r="P44" s="54"/>
+      <c r="Q44" s="64"/>
+    </row>
+    <row r="45" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A45" s="35"/>
+      <c r="B45" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="48"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="53"/>
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="47" t="s">
+      <c r="P45" s="54"/>
+      <c r="Q45" s="64"/>
+    </row>
+    <row r="46" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A46" s="35"/>
+      <c r="B46" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="53"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="9"/>
-    </row>
-    <row r="47" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="47" t="s">
+      <c r="P46" s="54"/>
+      <c r="Q46" s="64"/>
+    </row>
+    <row r="47" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A47" s="35"/>
+      <c r="B47" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="32"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="53"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="9"/>
-    </row>
-    <row r="48" spans="1:17" ht="90.75" customHeight="1">
-      <c r="A48" s="98"/>
-      <c r="B48" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="47" t="s">
+      <c r="P47" s="54"/>
+      <c r="Q47" s="64"/>
+    </row>
+    <row r="48" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A48" s="35"/>
+      <c r="B48" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="53"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="47" t="s">
+      <c r="P48" s="54"/>
+      <c r="Q48" s="64"/>
+    </row>
+    <row r="49" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A49" s="35"/>
+      <c r="B49" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="53"/>
       <c r="L49" s="17"/>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A50" s="98"/>
-      <c r="B50" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="47" t="s">
+      <c r="P49" s="54"/>
+      <c r="Q49" s="64"/>
+    </row>
+    <row r="50" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A50" s="35"/>
+      <c r="B50" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="48"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="51"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="53"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="47" t="s">
+      <c r="P50" s="54"/>
+      <c r="Q50" s="64"/>
+    </row>
+    <row r="51" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A51" s="35"/>
+      <c r="B51" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="48"/>
+      <c r="E51" s="32"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="51"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="53"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A52" s="98"/>
-      <c r="B52" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="47" t="s">
+      <c r="P51" s="54"/>
+      <c r="Q51" s="64"/>
+    </row>
+    <row r="52" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A52" s="35"/>
+      <c r="B52" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="53"/>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
       <c r="O52" s="17"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="47" t="s">
+      <c r="P52" s="54"/>
+      <c r="Q52" s="64"/>
+    </row>
+    <row r="53" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A53" s="35"/>
+      <c r="B53" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="48"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="53"/>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
       <c r="O53" s="17"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="47" t="s">
+      <c r="P53" s="54"/>
+      <c r="Q53" s="64"/>
+    </row>
+    <row r="54" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A54" s="35"/>
+      <c r="B54" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="48"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="51"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="53"/>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
       <c r="O54" s="17"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:25" ht="90.75" customHeight="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="47" t="s">
+      <c r="P54" s="54"/>
+      <c r="Q54" s="64"/>
+    </row>
+    <row r="55" ht="90.75" customHeight="1" spans="1:17">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="48"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="53"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
       <c r="O55" s="17"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A56" s="62">
+      <c r="P55" s="54"/>
+      <c r="Q55" s="64"/>
+    </row>
+    <row r="56" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A56" s="19">
         <v>14</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="47" t="s">
+      <c r="C56" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="24">
+      <c r="H56" s="30"/>
+      <c r="I56" s="51">
         <v>4</v>
       </c>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="51"/>
+      <c r="K56" s="53"/>
       <c r="L56" s="17">
         <v>450</v>
       </c>
@@ -7037,102 +7531,102 @@
       <c r="O56" s="17">
         <v>453.3</v>
       </c>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="9"/>
-    </row>
-    <row r="57" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A57" s="98"/>
-      <c r="B57" s="26" t="s">
+      <c r="P56" s="54"/>
+      <c r="Q56" s="64"/>
+    </row>
+    <row r="57" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A57" s="35"/>
+      <c r="B57" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="47" t="s">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="E57" s="48"/>
+      <c r="E57" s="32"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="51"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="53"/>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="9"/>
-    </row>
-    <row r="58" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A58" s="98"/>
-      <c r="B58" s="26" t="s">
+      <c r="P57" s="54"/>
+      <c r="Q57" s="64"/>
+    </row>
+    <row r="58" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A58" s="35"/>
+      <c r="B58" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="47" t="s">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="48"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="53"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="9"/>
-    </row>
-    <row r="59" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="26" t="s">
+      <c r="P58" s="54"/>
+      <c r="Q58" s="64"/>
+    </row>
+    <row r="59" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A59" s="29"/>
+      <c r="B59" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="47" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="48"/>
+      <c r="E59" s="32"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="53"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="9"/>
-    </row>
-    <row r="60" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A60" s="62">
+      <c r="P59" s="54"/>
+      <c r="Q59" s="64"/>
+    </row>
+    <row r="60" ht="100.5" customHeight="1" spans="1:25">
+      <c r="A60" s="19">
         <v>15</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="47" t="s">
+      <c r="C60" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="48"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="24">
+      <c r="H60" s="30"/>
+      <c r="I60" s="51">
         <v>2</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="J60" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K60" s="51"/>
+      <c r="K60" s="53"/>
       <c r="L60" s="17">
         <v>320</v>
       </c>
@@ -7146,62 +7640,62 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="9"/>
+      <c r="P60" s="54"/>
+      <c r="Q60" s="64"/>
       <c r="Y60" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" ht="100.5" customHeight="1" spans="1:25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="47" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="E61" s="48"/>
+      <c r="E61" s="32"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="51"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="53"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="9"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="64"/>
       <c r="Y61" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A62" s="62">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A62" s="19">
         <v>16</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="47" t="s">
+      <c r="C62" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="48"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="24">
+      <c r="H62" s="30"/>
+      <c r="I62" s="51">
         <v>2</v>
       </c>
-      <c r="J62" s="50" t="s">
+      <c r="J62" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K62" s="51"/>
+      <c r="K62" s="53"/>
       <c r="L62" s="17">
         <v>320</v>
       </c>
@@ -7215,56 +7709,56 @@
         <f>320*410*270*7.8*0.75/1000000</f>
         <v>207.2304</v>
       </c>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="57"/>
-    </row>
-    <row r="63" spans="1:25" ht="100.5" customHeight="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="26" t="s">
+      <c r="P62" s="54"/>
+      <c r="Q62" s="64"/>
+    </row>
+    <row r="63" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A63" s="29"/>
+      <c r="B63" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="47" t="s">
+      <c r="C63" s="31"/>
+      <c r="D63" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E63" s="48"/>
+      <c r="E63" s="32"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="51"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="53"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="57"/>
-    </row>
-    <row r="64" spans="1:25" ht="88.5" customHeight="1">
-      <c r="A64" s="62">
+      <c r="P63" s="54"/>
+      <c r="Q63" s="64"/>
+    </row>
+    <row r="64" ht="88.5" customHeight="1" spans="1:17">
+      <c r="A64" s="19">
         <v>17</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" s="47" t="s">
+      <c r="B64" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E64" s="48"/>
+      <c r="C64" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="32"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="27">
+      <c r="H64" s="30"/>
+      <c r="I64" s="55">
         <v>2</v>
       </c>
-      <c r="J64" s="50" t="s">
+      <c r="J64" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K64" s="51"/>
+      <c r="K64" s="53"/>
       <c r="L64" s="17">
         <v>400</v>
       </c>
@@ -7276,58 +7770,58 @@
       </c>
       <c r="O64" s="17">
         <f>280*400*410*7.8*0.75/1000000</f>
-        <v>268.63200000000001</v>
-      </c>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="57"/>
-    </row>
-    <row r="65" spans="1:17" ht="88.5" customHeight="1">
-      <c r="A65" s="63"/>
-      <c r="B65" s="26" t="s">
+        <v>268.632</v>
+      </c>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="64"/>
+    </row>
+    <row r="65" ht="88.5" customHeight="1" spans="1:17">
+      <c r="A65" s="29"/>
+      <c r="B65" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="48"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="51"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="53"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
-      <c r="P65" s="56"/>
-      <c r="Q65" s="57"/>
-    </row>
-    <row r="66" spans="1:17" ht="90" customHeight="1">
-      <c r="A66" s="62">
+      <c r="P65" s="54"/>
+      <c r="Q65" s="64"/>
+    </row>
+    <row r="66" ht="90" customHeight="1" spans="1:17">
+      <c r="A66" s="19">
         <v>18</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="47" t="s">
+      <c r="C66" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="E66" s="48"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="24">
+      <c r="H66" s="30"/>
+      <c r="I66" s="51">
         <v>2</v>
       </c>
-      <c r="J66" s="50" t="s">
+      <c r="J66" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="51"/>
+      <c r="K66" s="53"/>
       <c r="L66" s="17">
         <v>300</v>
       </c>
@@ -7340,56 +7834,56 @@
       <c r="O66" s="17">
         <v>233.4</v>
       </c>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="57"/>
-    </row>
-    <row r="67" spans="1:17" ht="90" customHeight="1">
-      <c r="A67" s="63"/>
-      <c r="B67" s="26" t="s">
+      <c r="P66" s="54"/>
+      <c r="Q66" s="64"/>
+    </row>
+    <row r="67" ht="90" customHeight="1" spans="1:17">
+      <c r="A67" s="29"/>
+      <c r="B67" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="47" t="s">
+      <c r="C67" s="31"/>
+      <c r="D67" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="E67" s="48"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="53"/>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="57"/>
-    </row>
-    <row r="68" spans="1:17" ht="100.5" customHeight="1">
-      <c r="A68" s="62">
+      <c r="P67" s="54"/>
+      <c r="Q67" s="64"/>
+    </row>
+    <row r="68" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A68" s="19">
         <v>19</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="E68" s="48"/>
+      <c r="E68" s="32"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="28" t="s">
+      <c r="H68" s="30"/>
+      <c r="I68" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="J68" s="50" t="s">
+      <c r="J68" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="K68" s="51"/>
+      <c r="K68" s="53"/>
       <c r="L68" s="17">
         <v>820</v>
       </c>
@@ -7401,150 +7895,150 @@
       </c>
       <c r="O68" s="17">
         <f>450*580*820*7.8*0.75/1000000</f>
-        <v>1252.0170000000001</v>
-      </c>
-      <c r="P68" s="56"/>
-      <c r="Q68" s="57"/>
-    </row>
-    <row r="69" spans="1:17" ht="100.5" customHeight="1">
-      <c r="A69" s="98"/>
-      <c r="B69" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="47" t="s">
+        <v>1252.017</v>
+      </c>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="64"/>
+    </row>
+    <row r="69" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A69" s="35"/>
+      <c r="B69" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="E69" s="48"/>
+      <c r="E69" s="32"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="101"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="51"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="53"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
-      <c r="P69" s="56"/>
-      <c r="Q69" s="57"/>
-    </row>
-    <row r="70" spans="1:17" ht="100.5" customHeight="1">
-      <c r="A70" s="98"/>
-      <c r="B70" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="47" t="s">
+      <c r="P69" s="54"/>
+      <c r="Q69" s="64"/>
+    </row>
+    <row r="70" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A70" s="35"/>
+      <c r="B70" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E70" s="48"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="101"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="51"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="53"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
-      <c r="P70" s="56"/>
-      <c r="Q70" s="57"/>
-    </row>
-    <row r="71" spans="1:17" ht="100.5" customHeight="1">
-      <c r="A71" s="98"/>
-      <c r="B71" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="47" t="s">
+      <c r="P70" s="54"/>
+      <c r="Q70" s="64"/>
+    </row>
+    <row r="71" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A71" s="35"/>
+      <c r="B71" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E71" s="48"/>
+      <c r="E71" s="32"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="51"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="53"/>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="57"/>
-    </row>
-    <row r="72" spans="1:17" ht="100.5" customHeight="1">
-      <c r="A72" s="98"/>
-      <c r="B72" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="47" t="s">
+      <c r="P71" s="54"/>
+      <c r="Q71" s="64"/>
+    </row>
+    <row r="72" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A72" s="35"/>
+      <c r="B72" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="48"/>
+      <c r="E72" s="32"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="101"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="53"/>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="57"/>
-    </row>
-    <row r="73" spans="1:17" ht="100.5" customHeight="1">
-      <c r="A73" s="63"/>
-      <c r="B73" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="47" t="s">
+      <c r="P72" s="54"/>
+      <c r="Q72" s="64"/>
+    </row>
+    <row r="73" ht="100.5" customHeight="1" spans="1:17">
+      <c r="A73" s="29"/>
+      <c r="B73" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="48"/>
+      <c r="E73" s="32"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="101"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="51"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="53"/>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="57"/>
-    </row>
-    <row r="74" spans="1:17" ht="93" customHeight="1">
-      <c r="A74" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="57"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="64"/>
+    </row>
+    <row r="74" ht="93" customHeight="1" spans="1:17">
+      <c r="A74" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="64"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="24">
+      <c r="H74" s="30"/>
+      <c r="I74" s="51">
         <v>2</v>
       </c>
-      <c r="J74" s="50" t="s">
+      <c r="J74" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K74" s="51"/>
+      <c r="K74" s="53"/>
       <c r="L74" s="17">
         <v>450</v>
       </c>
@@ -7557,33 +8051,33 @@
       <c r="O74" s="17">
         <v>400</v>
       </c>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="57"/>
-    </row>
-    <row r="75" spans="1:17" ht="81" customHeight="1">
-      <c r="A75" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="26" t="s">
+      <c r="P74" s="54"/>
+      <c r="Q74" s="64"/>
+    </row>
+    <row r="75" ht="81" customHeight="1" spans="1:17">
+      <c r="A75" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="47" t="s">
+      <c r="C75" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="48"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="31">
+      <c r="H75" s="30"/>
+      <c r="I75" s="57">
         <v>2</v>
       </c>
-      <c r="J75" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K75" s="51"/>
+      <c r="J75" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75" s="53"/>
       <c r="L75" s="17">
         <v>450</v>
       </c>
@@ -7596,56 +8090,56 @@
       <c r="O75" s="17">
         <v>414.4</v>
       </c>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="55"/>
-    </row>
-    <row r="76" spans="1:17" ht="81" customHeight="1">
-      <c r="A76" s="63"/>
-      <c r="B76" s="26" t="s">
+      <c r="P75" s="2"/>
+      <c r="Q75" s="18"/>
+    </row>
+    <row r="76" ht="81" customHeight="1" spans="1:17">
+      <c r="A76" s="29"/>
+      <c r="B76" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="47" t="s">
+      <c r="C76" s="31"/>
+      <c r="D76" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="E76" s="48"/>
+      <c r="E76" s="32"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="51"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="53"/>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="55"/>
-    </row>
-    <row r="77" spans="1:17" ht="93" customHeight="1">
-      <c r="A77" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" s="26" t="s">
+      <c r="P76" s="2"/>
+      <c r="Q76" s="18"/>
+    </row>
+    <row r="77" ht="93" customHeight="1" spans="1:17">
+      <c r="A77" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="47" t="s">
+      <c r="C77" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="E77" s="48"/>
+      <c r="E77" s="32"/>
       <c r="F77" s="2"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="101"/>
-      <c r="I77" s="31">
+      <c r="H77" s="30"/>
+      <c r="I77" s="57">
         <v>2</v>
       </c>
-      <c r="J77" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77" s="51"/>
+      <c r="J77" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="53"/>
       <c r="L77" s="17">
         <v>450</v>
       </c>
@@ -7661,22 +8155,22 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="18"/>
     </row>
-    <row r="78" spans="1:17" ht="93" customHeight="1">
-      <c r="A78" s="63"/>
-      <c r="B78" s="26" t="s">
+    <row r="78" ht="93" customHeight="1" spans="1:17">
+      <c r="A78" s="29"/>
+      <c r="B78" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="47" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E78" s="48"/>
+      <c r="E78" s="32"/>
       <c r="F78" s="2"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="51"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="53"/>
       <c r="L78" s="17"/>
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
@@ -7684,30 +8178,30 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="18"/>
     </row>
-    <row r="79" spans="1:17" ht="93" customHeight="1">
-      <c r="A79" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="57"/>
+    <row r="79" ht="93" customHeight="1" spans="1:17">
+      <c r="A79" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="64"/>
       <c r="F79" s="2"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="101"/>
+      <c r="H79" s="30"/>
       <c r="I79" s="17">
         <v>2</v>
       </c>
-      <c r="J79" s="50" t="s">
+      <c r="J79" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K79" s="51"/>
+      <c r="K79" s="53"/>
       <c r="L79" s="17">
         <v>550</v>
       </c>
@@ -7719,35 +8213,35 @@
       </c>
       <c r="O79" s="17">
         <f>410*450*550*7.8*0.75/1000000</f>
-        <v>593.62874999999997</v>
-      </c>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="52"/>
-    </row>
-    <row r="80" spans="1:17" ht="93" customHeight="1">
-      <c r="A80" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E80" s="55"/>
-      <c r="F80" s="25"/>
+        <v>593.62875</v>
+      </c>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+    </row>
+    <row r="80" ht="93" customHeight="1" spans="1:17">
+      <c r="A80" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E80" s="18"/>
+      <c r="F80" s="54"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="101"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="17">
         <v>1</v>
       </c>
-      <c r="J80" s="50" t="s">
+      <c r="J80" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K80" s="51"/>
+      <c r="K80" s="53"/>
       <c r="L80" s="19">
         <v>560</v>
       </c>
@@ -7759,35 +8253,35 @@
       </c>
       <c r="O80" s="19">
         <f>560*410*450*7.8*0.75/1000000</f>
-        <v>604.42200000000003</v>
-      </c>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
-    </row>
-    <row r="81" spans="1:17" ht="93" customHeight="1">
-      <c r="A81" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="25"/>
+        <v>604.422</v>
+      </c>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+    </row>
+    <row r="81" ht="93" customHeight="1" spans="1:17">
+      <c r="A81" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="19"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="102"/>
+      <c r="H81" s="65"/>
       <c r="I81" s="17">
         <v>4</v>
       </c>
-      <c r="J81" s="50" t="s">
+      <c r="J81" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="K81" s="51"/>
+      <c r="K81" s="53"/>
       <c r="L81" s="17">
         <v>370</v>
       </c>
@@ -7798,162 +8292,212 @@
         <v>250</v>
       </c>
       <c r="O81" s="17">
-        <v>162.30000000000001</v>
-      </c>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-    </row>
-    <row r="82" spans="1:17" ht="98.1" customHeight="1"/>
-    <row r="83" spans="1:17">
-      <c r="K83" s="45"/>
+        <v>162.3</v>
+      </c>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+    </row>
+    <row r="82" ht="98.1" customHeight="1"/>
+    <row r="83" spans="11:11">
+      <c r="K83" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="235">
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="H7:H81"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="P68:Q68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="J69:K69"/>
     <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="P72:Q72"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="P73:Q73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="J74:K74"/>
     <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="P75:Q75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="J76:K76"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="J79:K79"/>
     <mergeCell ref="P79:Q79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="J80:K80"/>
@@ -7961,93 +8505,42 @@
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="J81:K81"/>
     <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E1:K4"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H81"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D5:E6"/>
     <mergeCell ref="J5:K6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="E1:K4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.23" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="5" scale="10" fitToHeight="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="10" fitToHeight="8" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -8057,6 +8550,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>